--- a/2021/Realme/DECEMBER/All Details/30.12.2021/realme Bank Statement December-2021.xlsx
+++ b/2021/Realme/DECEMBER/All Details/30.12.2021/realme Bank Statement December-2021.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\DECEMBER\All Details\30.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2021\Realme\DECEMBER\All Details\30.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="DEC 2021" sheetId="7" r:id="rId1"/>
@@ -2630,6 +2630,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2667,12 +2673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3310,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4351,67 +4351,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
     </row>
     <row r="2" spans="1:24" s="104" customFormat="1" ht="18">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="263" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="263"/>
     </row>
     <row r="3" spans="1:24" s="105" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="264" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="264"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
+      <c r="J3" s="265"/>
+      <c r="K3" s="265"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="265"/>
+      <c r="N3" s="265"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="265"/>
+      <c r="Q3" s="266"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4420,10 +4420,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="107" customFormat="1">
-      <c r="A4" s="265" t="s">
+      <c r="A4" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="267" t="s">
+      <c r="B4" s="269" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="256" t="s">
@@ -4459,13 +4459,13 @@
       <c r="M4" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="258" t="s">
+      <c r="N4" s="260" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="271" t="s">
+      <c r="O4" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="269" t="s">
+      <c r="P4" s="271" t="s">
         <v>36</v>
       </c>
       <c r="Q4" s="106" t="s">
@@ -4478,8 +4478,8 @@
       <c r="W4" s="109"/>
     </row>
     <row r="5" spans="1:24" s="107" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="266"/>
-      <c r="B5" s="268"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="257"/>
       <c r="D5" s="257"/>
       <c r="E5" s="257"/>
@@ -4491,9 +4491,9 @@
       <c r="K5" s="257"/>
       <c r="L5" s="257"/>
       <c r="M5" s="257"/>
-      <c r="N5" s="259"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="270"/>
+      <c r="N5" s="261"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="272"/>
       <c r="Q5" s="111" t="s">
         <v>37</v>
       </c>
@@ -7627,12 +7627,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7646,6 +7640,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16393,7 +16393,7 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
